--- a/combinedRatings.xlsx
+++ b/combinedRatings.xlsx
@@ -488,27 +488,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>My altafiber</t>
+          <t>Go Kinetic by Windstream</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4.5</v>
+        <v>4.65</v>
       </c>
       <c r="D2" t="n">
-        <v>4710</v>
+        <v>82788</v>
       </c>
       <c r="E2" t="n">
         <v>4.8</v>
       </c>
       <c r="F2" t="n">
-        <v>4393</v>
+        <v>61742</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>317</v>
+        <v>21046</v>
       </c>
     </row>
     <row r="3">
@@ -519,27 +519,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>My Sprint Mobile</t>
+          <t>My altafiber</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="D3" t="n">
-        <v>1237634</v>
+        <v>4743</v>
       </c>
       <c r="E3" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="F3" t="n">
-        <v>1047309</v>
+        <v>4426</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I3" t="n">
-        <v>190325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4">
@@ -550,27 +550,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MyDISH Account</t>
+          <t>Spectrum Access: Enabled Media</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="D4" t="n">
-        <v>1096771</v>
+        <v>265</v>
       </c>
       <c r="E4" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="F4" t="n">
-        <v>322194</v>
+        <v>123</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="I4" t="n">
-        <v>774577</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5">
@@ -581,29 +581,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>My CenturyLink</t>
+          <t>Cox App</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>4.55</v>
       </c>
       <c r="D5" t="n">
-        <v>175671</v>
+        <v>489344</v>
       </c>
       <c r="E5" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="F5" t="n">
-        <v>116043</v>
+        <v>399031</v>
       </c>
       <c r="G5" t="n">
-        <v>196</v>
+        <v>117</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="I5" t="n">
-        <v>59628</v>
+        <v>90313</v>
       </c>
     </row>
     <row r="6">
@@ -614,29 +614,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>T-Mobile</t>
+          <t>My Verizon</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4.449999999999999</v>
+        <v>4.6</v>
       </c>
       <c r="D6" t="n">
-        <v>2556296</v>
+        <v>5750786</v>
       </c>
       <c r="E6" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="F6" t="n">
-        <v>2412812</v>
+        <v>4754388</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H6" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="I6" t="n">
-        <v>143484</v>
+        <v>996398</v>
       </c>
     </row>
     <row r="7">
@@ -647,29 +647,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>My Spectrum</t>
+          <t>myCricket App</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4.55</v>
+        <v>4.3</v>
       </c>
       <c r="D7" t="n">
-        <v>2086809</v>
+        <v>233477</v>
       </c>
       <c r="E7" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="F7" t="n">
-        <v>2010064</v>
+        <v>43149</v>
       </c>
       <c r="G7" t="n">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="H7" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="I7" t="n">
-        <v>76745</v>
+        <v>190328</v>
       </c>
     </row>
     <row r="8">
@@ -680,29 +680,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Spectrum News: Local Stories</t>
+          <t>MyDISH Account</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4.65</v>
+        <v>4.1</v>
       </c>
       <c r="D8" t="n">
-        <v>1021351</v>
+        <v>381866</v>
       </c>
       <c r="E8" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="F8" t="n">
-        <v>24958</v>
-      </c>
-      <c r="G8" t="n">
-        <v>51</v>
-      </c>
+        <v>322237</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>996393</v>
+        <v>59629</v>
       </c>
     </row>
     <row r="9">
@@ -713,29 +711,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cox App</t>
+          <t>T-Mobile</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4.55</v>
+        <v>4.2</v>
       </c>
       <c r="D9" t="n">
-        <v>399173</v>
+        <v>3187389</v>
       </c>
       <c r="E9" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="F9" t="n">
-        <v>399031</v>
+        <v>2412812</v>
       </c>
       <c r="G9" t="n">
-        <v>117</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>142</v>
+        <v>774577</v>
       </c>
     </row>
     <row r="10">
@@ -746,27 +744,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Spectrum Access: Enabled Media</t>
+          <t>Xfinity Mobile</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>55476</v>
+        <v>55397</v>
       </c>
       <c r="E10" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="F10" t="n">
-        <v>123</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
+        <v>42796</v>
+      </c>
+      <c r="G10" t="n">
+        <v>87</v>
+      </c>
       <c r="H10" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>55353</v>
+        <v>12601</v>
       </c>
     </row>
     <row r="11">
@@ -777,29 +777,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Verizon My Fios</t>
+          <t>Spectrum News: Local Stories</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="D11" t="n">
-        <v>270661</v>
+        <v>30351</v>
       </c>
       <c r="E11" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="F11" t="n">
-        <v>258060</v>
+        <v>24958</v>
       </c>
       <c r="G11" t="n">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="I11" t="n">
-        <v>12601</v>
+        <v>5393</v>
       </c>
     </row>
     <row r="12">
@@ -810,29 +810,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Xfinity Mobile</t>
+          <t>My Spectrum</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4.449999999999999</v>
+        <v>4.699999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>48189</v>
+        <v>2645951</v>
       </c>
       <c r="E12" t="n">
         <v>4.8</v>
       </c>
       <c r="F12" t="n">
-        <v>42796</v>
+        <v>2010064</v>
       </c>
       <c r="G12" t="n">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="H12" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="I12" t="n">
-        <v>5393</v>
+        <v>635887</v>
       </c>
     </row>
     <row r="13">
@@ -843,27 +843,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Go Kinetic by Windstream</t>
+          <t>My Sprint Mobile</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4.65</v>
+        <v>4.3</v>
       </c>
       <c r="D13" t="n">
-        <v>152049</v>
+        <v>1190791</v>
       </c>
       <c r="E13" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="F13" t="n">
-        <v>61742</v>
+        <v>1047309</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="I13" t="n">
-        <v>90307</v>
+        <v>143482</v>
       </c>
     </row>
     <row r="14">
@@ -874,29 +874,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>myAT&amp;amp;T</t>
+          <t>Verizon My Fios</t>
         </is>
       </c>
       <c r="C14" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D14" t="n">
+        <v>334805</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>258060</v>
+      </c>
+      <c r="G14" t="n">
+        <v>111</v>
+      </c>
+      <c r="H14" t="n">
         <v>4.3</v>
       </c>
-      <c r="D14" t="n">
-        <v>4627173</v>
-      </c>
-      <c r="E14" t="n">
-        <v>4</v>
-      </c>
-      <c r="F14" t="n">
-        <v>3991303</v>
-      </c>
-      <c r="G14" t="n">
-        <v>14</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4.6</v>
-      </c>
       <c r="I14" t="n">
-        <v>635870</v>
+        <v>76745</v>
       </c>
     </row>
     <row r="15">
@@ -907,29 +907,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>My Verizon</t>
+          <t>My CenturyLink</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4.55</v>
+        <v>4.25</v>
       </c>
       <c r="D15" t="n">
-        <v>4775434</v>
+        <v>171396</v>
       </c>
       <c r="E15" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="F15" t="n">
-        <v>4754388</v>
+        <v>116043</v>
       </c>
       <c r="G15" t="n">
-        <v>9</v>
+        <v>196</v>
       </c>
       <c r="H15" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="I15" t="n">
-        <v>21046</v>
+        <v>55353</v>
       </c>
     </row>
     <row r="16">
@@ -940,29 +940,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Spectrum TV</t>
+          <t>Visible mobile</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4.45</v>
+        <v>4.300000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>441242</v>
+        <v>106650</v>
       </c>
       <c r="E16" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="F16" t="n">
-        <v>411629</v>
+        <v>77035</v>
       </c>
       <c r="G16" t="n">
-        <v>47</v>
+        <v>156</v>
       </c>
       <c r="H16" t="n">
         <v>4.2</v>
       </c>
       <c r="I16" t="n">
-        <v>29613</v>
+        <v>29615</v>
       </c>
     </row>
     <row r="17">
@@ -973,20 +973,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MediacomConnect</t>
+          <t>SpectrumU</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="D17" t="n">
-        <v>6855</v>
+        <v>427</v>
       </c>
       <c r="E17" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="F17" t="n">
-        <v>6603</v>
+        <v>175</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
@@ -1004,29 +1004,29 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Visible mobile</t>
+          <t>Spectrum TV</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3.85</v>
+        <v>4.65</v>
       </c>
       <c r="D18" t="n">
-        <v>78451</v>
+        <v>600878</v>
       </c>
       <c r="E18" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="F18" t="n">
-        <v>77035</v>
+        <v>411629</v>
       </c>
       <c r="G18" t="n">
-        <v>156</v>
+        <v>47</v>
       </c>
       <c r="H18" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="I18" t="n">
-        <v>1416</v>
+        <v>189249</v>
       </c>
     </row>
     <row r="19">
@@ -1037,23 +1037,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SpectrumU</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>myAT&amp;amp;T</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>3.5</v>
+      </c>
       <c r="D19" t="n">
-        <v>175</v>
+        <v>4268811</v>
       </c>
       <c r="E19" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>175</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+        <v>3991303</v>
+      </c>
+      <c r="G19" t="n">
+        <v>14</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>277508</v>
       </c>
     </row>
     <row r="20">
@@ -1064,29 +1070,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Xfinity</t>
+          <t>Spectrum SportsNet: Live Games</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4.25</v>
+        <v>3.95</v>
       </c>
       <c r="D20" t="n">
-        <v>877434</v>
+        <v>5565</v>
       </c>
       <c r="E20" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="F20" t="n">
-        <v>876975</v>
-      </c>
-      <c r="G20" t="n">
-        <v>5</v>
-      </c>
+        <v>4149</v>
+      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="I20" t="n">
-        <v>459</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="21">
@@ -1097,27 +1101,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HughesNet Mobile</t>
+          <t>MediacomConnect</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2.85</v>
+        <v>3.4</v>
       </c>
       <c r="D21" t="n">
-        <v>1460</v>
+        <v>19121</v>
       </c>
       <c r="E21" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="F21" t="n">
-        <v>307</v>
+        <v>6603</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="I21" t="n">
-        <v>1153</v>
+        <v>12518</v>
       </c>
     </row>
     <row r="22">
@@ -1135,7 +1139,7 @@
         <v>3.4</v>
       </c>
       <c r="D22" t="n">
-        <v>382793</v>
+        <v>382796</v>
       </c>
       <c r="E22" t="n">
         <v>2.8</v>
@@ -1150,7 +1154,7 @@
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>379632</v>
+        <v>379635</v>
       </c>
     </row>
     <row r="23">
@@ -1168,7 +1172,7 @@
         <v>4.300000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>81558</v>
+        <v>81559</v>
       </c>
       <c r="E23" t="n">
         <v>4.4</v>
@@ -1183,7 +1187,7 @@
         <v>4.2</v>
       </c>
       <c r="I23" t="n">
-        <v>36337</v>
+        <v>36338</v>
       </c>
     </row>
     <row r="24">
@@ -1194,27 +1198,29 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>My Viasat</t>
+          <t>Xfinity</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>3158</v>
+        <v>1030498</v>
       </c>
       <c r="E24" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="F24" t="n">
-        <v>1620</v>
-      </c>
-      <c r="G24" t="inlineStr"/>
+        <v>876975</v>
+      </c>
+      <c r="G24" t="n">
+        <v>5</v>
+      </c>
       <c r="H24" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="I24" t="n">
-        <v>1538</v>
+        <v>153523</v>
       </c>
     </row>
     <row r="25">
@@ -1225,27 +1231,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Armstrong</t>
+          <t>Google Fiber</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="D25" t="n">
-        <v>277525</v>
+        <v>1444</v>
       </c>
       <c r="E25" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="F25" t="n">
-        <v>14</v>
+        <v>291</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="I25" t="n">
-        <v>277511</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="26">
@@ -1256,27 +1262,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Optimum Support</t>
+          <t>My Viasat</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2.45</v>
+        <v>3.9</v>
       </c>
       <c r="D26" t="n">
-        <v>13893</v>
+        <v>4574</v>
       </c>
       <c r="E26" t="n">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="F26" t="n">
-        <v>1375</v>
+        <v>1620</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I26" t="n">
-        <v>12518</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="27">
@@ -1287,27 +1293,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Midco My Account</t>
+          <t>Armstrong</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2.95</v>
+        <v>3.9</v>
       </c>
       <c r="D27" t="n">
-        <v>189268</v>
+        <v>473</v>
       </c>
       <c r="E27" t="n">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="F27" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="I27" t="n">
-        <v>189244</v>
+        <v>459</v>
       </c>
     </row>
     <row r="28">
@@ -1321,11 +1327,9 @@
           <t>Astound Mobile</t>
         </is>
       </c>
-      <c r="C28" t="n">
-        <v>4.3</v>
-      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>2955</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
         <v>5</v>
@@ -1334,11 +1338,9 @@
         <v>1</v>
       </c>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="n">
-        <v>3.6</v>
-      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>2954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1349,27 +1351,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>HT My Account</t>
+          <t>HughesNet Mobile</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="D29" t="n">
-        <v>153532</v>
+        <v>1844</v>
       </c>
       <c r="E29" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="F29" t="n">
-        <v>20</v>
+        <v>307</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="I29" t="n">
-        <v>153512</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="30">
@@ -1380,27 +1382,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Google Fiber</t>
+          <t>HT My Account</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3.05</v>
+        <v>2.05</v>
       </c>
       <c r="D30" t="n">
-        <v>1517</v>
+        <v>53</v>
       </c>
       <c r="E30" t="n">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="F30" t="n">
-        <v>291</v>
+        <v>20</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
         <v>2.5</v>
       </c>
       <c r="I30" t="n">
-        <v>1226</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31">
@@ -1411,27 +1413,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>My Blue Ridge</t>
+          <t>Midco My Account</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3.55</v>
+        <v>1.85</v>
       </c>
       <c r="D31" t="n">
-        <v>3331</v>
+        <v>287</v>
       </c>
       <c r="E31" t="n">
-        <v>4.6</v>
+        <v>1.3</v>
       </c>
       <c r="F31" t="n">
-        <v>3298</v>
+        <v>24</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="I31" t="n">
-        <v>33</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32">
@@ -1442,27 +1444,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SE Next powered by Tivo</t>
+          <t>Optimum Support</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2.65</v>
+        <v>1.95</v>
       </c>
       <c r="D32" t="n">
-        <v>271</v>
+        <v>2601</v>
       </c>
       <c r="E32" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="F32" t="n">
-        <v>8</v>
+        <v>1375</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="I32" t="n">
-        <v>263</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="33">
@@ -1473,20 +1475,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Breezeline TV</t>
+          <t>UScellular™ – My Account</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2.65</v>
+        <v>4.25</v>
       </c>
       <c r="D33" t="n">
-        <v>20558</v>
+        <v>48891</v>
       </c>
       <c r="E33" t="n">
-        <v>1.2</v>
+        <v>4.4</v>
       </c>
       <c r="F33" t="n">
-        <v>38</v>
+        <v>28371</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
@@ -1504,20 +1506,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Optimum TV</t>
+          <t>SE Next powered by Tivo</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3.2</v>
+        <v>2.35</v>
       </c>
       <c r="D34" t="n">
-        <v>13460</v>
+        <v>31</v>
       </c>
       <c r="E34" t="n">
-        <v>4.6</v>
+        <v>2.9</v>
       </c>
       <c r="F34" t="n">
-        <v>13437</v>
+        <v>8</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
@@ -1535,27 +1537,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>myBuckeye</t>
+          <t>Optimum TV</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="D35" t="n">
-        <v>101</v>
+        <v>15893</v>
       </c>
       <c r="E35" t="n">
-        <v>2.5</v>
+        <v>4.6</v>
       </c>
       <c r="F35" t="n">
-        <v>22</v>
+        <v>13437</v>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="I35" t="n">
-        <v>79</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="36">
@@ -1566,29 +1568,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>myCricket App</t>
+          <t>Breezeline TV</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4.05</v>
+        <v>1.65</v>
       </c>
       <c r="D36" t="n">
-        <v>45606</v>
+        <v>212</v>
       </c>
       <c r="E36" t="n">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="F36" t="n">
-        <v>43149</v>
-      </c>
-      <c r="G36" t="n">
-        <v>90</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="I36" t="n">
-        <v>2457</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37">
@@ -1599,20 +1599,20 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>UScellular™ – My Account</t>
+          <t>My Blue Ridge</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="D37" t="n">
-        <v>29253</v>
+        <v>4180</v>
       </c>
       <c r="E37" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="F37" t="n">
-        <v>28371</v>
+        <v>3298</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
@@ -1630,27 +1630,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Spectrum SportsNet: Live Games</t>
+          <t>myBuckeye</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3.35</v>
+        <v>2.8</v>
       </c>
       <c r="D38" t="n">
-        <v>4323</v>
+        <v>101</v>
       </c>
       <c r="E38" t="n">
-        <v>4.6</v>
+        <v>2.5</v>
       </c>
       <c r="F38" t="n">
-        <v>4149</v>
+        <v>22</v>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="I38" t="n">
-        <v>174</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/combinedRatings.xlsx
+++ b/combinedRatings.xlsx
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -495,26 +495,26 @@
         <v>4.65</v>
       </c>
       <c r="D2" t="n">
-        <v>82788</v>
+        <v>82804</v>
       </c>
       <c r="E2" t="n">
         <v>4.8</v>
       </c>
       <c r="F2" t="n">
-        <v>61742</v>
+        <v>61753</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
         <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>21046</v>
+        <v>21051</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -523,29 +523,29 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4.5</v>
+        <v>4.449999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>4743</v>
+        <v>4751</v>
       </c>
       <c r="E3" t="n">
         <v>4.8</v>
       </c>
       <c r="F3" t="n">
-        <v>4426</v>
+        <v>4429</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I3" t="n">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -576,7 +576,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -588,28 +588,28 @@
         <v>4.55</v>
       </c>
       <c r="D5" t="n">
-        <v>489344</v>
+        <v>489478</v>
       </c>
       <c r="E5" t="n">
         <v>4.6</v>
       </c>
       <c r="F5" t="n">
-        <v>399031</v>
+        <v>399132</v>
       </c>
       <c r="G5" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H5" t="n">
         <v>4.5</v>
       </c>
       <c r="I5" t="n">
-        <v>90313</v>
+        <v>90346</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -621,13 +621,13 @@
         <v>4.6</v>
       </c>
       <c r="D6" t="n">
-        <v>5750786</v>
+        <v>5751267</v>
       </c>
       <c r="E6" t="n">
         <v>4.6</v>
       </c>
       <c r="F6" t="n">
-        <v>4754388</v>
+        <v>4754690</v>
       </c>
       <c r="G6" t="n">
         <v>9</v>
@@ -636,13 +636,13 @@
         <v>4.6</v>
       </c>
       <c r="I6" t="n">
-        <v>996398</v>
+        <v>996577</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -654,28 +654,28 @@
         <v>4.3</v>
       </c>
       <c r="D7" t="n">
-        <v>233477</v>
+        <v>233519</v>
       </c>
       <c r="E7" t="n">
         <v>4.5</v>
       </c>
       <c r="F7" t="n">
-        <v>43149</v>
+        <v>43158</v>
       </c>
       <c r="G7" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H7" t="n">
         <v>4.1</v>
       </c>
       <c r="I7" t="n">
-        <v>190328</v>
+        <v>190361</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -687,26 +687,26 @@
         <v>4.1</v>
       </c>
       <c r="D8" t="n">
-        <v>381866</v>
+        <v>381910</v>
       </c>
       <c r="E8" t="n">
         <v>4.6</v>
       </c>
       <c r="F8" t="n">
-        <v>322237</v>
+        <v>322274</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
         <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>59629</v>
+        <v>59636</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -718,13 +718,13 @@
         <v>4.2</v>
       </c>
       <c r="D9" t="n">
-        <v>3187389</v>
+        <v>3187406</v>
       </c>
       <c r="E9" t="n">
         <v>4.8</v>
       </c>
       <c r="F9" t="n">
-        <v>2412812</v>
+        <v>2412814</v>
       </c>
       <c r="G9" t="n">
         <v>4</v>
@@ -733,13 +733,13 @@
         <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>774577</v>
+        <v>774592</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -751,28 +751,28 @@
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>55397</v>
+        <v>55403</v>
       </c>
       <c r="E10" t="n">
         <v>4.8</v>
       </c>
       <c r="F10" t="n">
-        <v>42796</v>
+        <v>42795</v>
       </c>
       <c r="G10" t="n">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H10" t="n">
         <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>12601</v>
+        <v>12608</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -784,28 +784,28 @@
         <v>4.4</v>
       </c>
       <c r="D11" t="n">
-        <v>30351</v>
+        <v>30365</v>
       </c>
       <c r="E11" t="n">
         <v>4.7</v>
       </c>
       <c r="F11" t="n">
-        <v>24958</v>
+        <v>24969</v>
       </c>
       <c r="G11" t="n">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="H11" t="n">
         <v>4.1</v>
       </c>
       <c r="I11" t="n">
-        <v>5393</v>
+        <v>5396</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -817,28 +817,28 @@
         <v>4.699999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>2645951</v>
+        <v>2646808</v>
       </c>
       <c r="E12" t="n">
         <v>4.8</v>
       </c>
       <c r="F12" t="n">
-        <v>2010064</v>
+        <v>2010530</v>
       </c>
       <c r="G12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H12" t="n">
         <v>4.6</v>
       </c>
       <c r="I12" t="n">
-        <v>635887</v>
+        <v>636278</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -850,13 +850,13 @@
         <v>4.3</v>
       </c>
       <c r="D13" t="n">
-        <v>1190791</v>
+        <v>1190790</v>
       </c>
       <c r="E13" t="n">
         <v>4.5</v>
       </c>
       <c r="F13" t="n">
-        <v>1047309</v>
+        <v>1047308</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
@@ -869,7 +869,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -881,28 +881,28 @@
         <v>4.4</v>
       </c>
       <c r="D14" t="n">
-        <v>334805</v>
+        <v>334866</v>
       </c>
       <c r="E14" t="n">
         <v>4.5</v>
       </c>
       <c r="F14" t="n">
-        <v>258060</v>
+        <v>258086</v>
       </c>
       <c r="G14" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H14" t="n">
         <v>4.3</v>
       </c>
       <c r="I14" t="n">
-        <v>76745</v>
+        <v>76780</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -914,28 +914,28 @@
         <v>4.25</v>
       </c>
       <c r="D15" t="n">
-        <v>171396</v>
+        <v>171417</v>
       </c>
       <c r="E15" t="n">
         <v>4.4</v>
       </c>
       <c r="F15" t="n">
-        <v>116043</v>
+        <v>116054</v>
       </c>
       <c r="G15" t="n">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H15" t="n">
         <v>4.1</v>
       </c>
       <c r="I15" t="n">
-        <v>55353</v>
+        <v>55363</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -947,28 +947,28 @@
         <v>4.300000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>106650</v>
+        <v>106727</v>
       </c>
       <c r="E16" t="n">
         <v>4.4</v>
       </c>
       <c r="F16" t="n">
-        <v>77035</v>
+        <v>77100</v>
       </c>
       <c r="G16" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H16" t="n">
         <v>4.2</v>
       </c>
       <c r="I16" t="n">
-        <v>29615</v>
+        <v>29627</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -999,7 +999,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1011,28 +1011,28 @@
         <v>4.65</v>
       </c>
       <c r="D18" t="n">
-        <v>600878</v>
+        <v>601086</v>
       </c>
       <c r="E18" t="n">
         <v>4.7</v>
       </c>
       <c r="F18" t="n">
-        <v>411629</v>
+        <v>411772</v>
       </c>
       <c r="G18" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H18" t="n">
         <v>4.6</v>
       </c>
       <c r="I18" t="n">
-        <v>189249</v>
+        <v>189314</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1044,28 +1044,28 @@
         <v>3.5</v>
       </c>
       <c r="D19" t="n">
-        <v>4268811</v>
+        <v>4268840</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>3991303</v>
+        <v>3991306</v>
       </c>
       <c r="G19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H19" t="n">
         <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>277508</v>
+        <v>277534</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1077,13 +1077,13 @@
         <v>3.95</v>
       </c>
       <c r="D20" t="n">
-        <v>5565</v>
+        <v>5566</v>
       </c>
       <c r="E20" t="n">
         <v>4.6</v>
       </c>
       <c r="F20" t="n">
-        <v>4149</v>
+        <v>4150</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
@@ -1096,7 +1096,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1108,13 +1108,13 @@
         <v>3.4</v>
       </c>
       <c r="D21" t="n">
-        <v>19121</v>
+        <v>19123</v>
       </c>
       <c r="E21" t="n">
         <v>3.3</v>
       </c>
       <c r="F21" t="n">
-        <v>6603</v>
+        <v>6605</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
@@ -1127,7 +1127,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1139,28 +1139,28 @@
         <v>3.4</v>
       </c>
       <c r="D22" t="n">
-        <v>382796</v>
+        <v>382775</v>
       </c>
       <c r="E22" t="n">
         <v>2.8</v>
       </c>
       <c r="F22" t="n">
-        <v>3161</v>
+        <v>3129</v>
       </c>
       <c r="G22" t="n">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H22" t="n">
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>379635</v>
+        <v>379646</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1172,13 +1172,13 @@
         <v>4.300000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>81559</v>
+        <v>81578</v>
       </c>
       <c r="E23" t="n">
         <v>4.4</v>
       </c>
       <c r="F23" t="n">
-        <v>45221</v>
+        <v>45222</v>
       </c>
       <c r="G23" t="n">
         <v>195</v>
@@ -1187,13 +1187,13 @@
         <v>4.2</v>
       </c>
       <c r="I23" t="n">
-        <v>36338</v>
+        <v>36356</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1205,28 +1205,28 @@
         <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>1030498</v>
+        <v>1030901</v>
       </c>
       <c r="E24" t="n">
         <v>4.4</v>
       </c>
       <c r="F24" t="n">
-        <v>876975</v>
+        <v>877238</v>
       </c>
       <c r="G24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H24" t="n">
         <v>3.6</v>
       </c>
       <c r="I24" t="n">
-        <v>153523</v>
+        <v>153663</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1238,13 +1238,13 @@
         <v>3.75</v>
       </c>
       <c r="D25" t="n">
-        <v>1444</v>
+        <v>1448</v>
       </c>
       <c r="E25" t="n">
         <v>3.6</v>
       </c>
       <c r="F25" t="n">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
@@ -1257,7 +1257,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1269,26 +1269,26 @@
         <v>3.9</v>
       </c>
       <c r="D26" t="n">
-        <v>4574</v>
+        <v>4572</v>
       </c>
       <c r="E26" t="n">
         <v>4.2</v>
       </c>
       <c r="F26" t="n">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
         <v>3.6</v>
       </c>
       <c r="I26" t="n">
-        <v>2954</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1319,7 +1319,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1346,7 +1346,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1358,7 +1358,7 @@
         <v>2.3</v>
       </c>
       <c r="D29" t="n">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="E29" t="n">
         <v>1.8</v>
@@ -1371,13 +1371,13 @@
         <v>2.8</v>
       </c>
       <c r="I29" t="n">
-        <v>1537</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1408,7 +1408,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="D31" t="n">
         <v>287</v>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="I31" t="n">
         <v>263</v>
@@ -1439,7 +1439,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1451,7 +1451,7 @@
         <v>1.95</v>
       </c>
       <c r="D32" t="n">
-        <v>2601</v>
+        <v>2602</v>
       </c>
       <c r="E32" t="n">
         <v>1.4</v>
@@ -1464,13 +1464,13 @@
         <v>2.5</v>
       </c>
       <c r="I32" t="n">
-        <v>1226</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1482,26 +1482,26 @@
         <v>4.25</v>
       </c>
       <c r="D33" t="n">
-        <v>48891</v>
+        <v>48900</v>
       </c>
       <c r="E33" t="n">
         <v>4.4</v>
       </c>
       <c r="F33" t="n">
-        <v>28371</v>
+        <v>28374</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
         <v>4.1</v>
       </c>
       <c r="I33" t="n">
-        <v>20520</v>
+        <v>20526</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1532,7 +1532,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1541,29 +1541,29 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="D35" t="n">
-        <v>15893</v>
+        <v>15905</v>
       </c>
       <c r="E35" t="n">
         <v>4.6</v>
       </c>
       <c r="F35" t="n">
-        <v>13437</v>
+        <v>13443</v>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I35" t="n">
-        <v>2456</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1594,7 +1594,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1606,26 +1606,26 @@
         <v>4.5</v>
       </c>
       <c r="D37" t="n">
-        <v>4180</v>
+        <v>4178</v>
       </c>
       <c r="E37" t="n">
         <v>4.6</v>
       </c>
       <c r="F37" t="n">
-        <v>3298</v>
+        <v>3300</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
         <v>4.4</v>
       </c>
       <c r="I37" t="n">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>June 26, 2023</t>
+          <t>June 27, 2023</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">

--- a/combinedRatings.xlsx
+++ b/combinedRatings.xlsx
@@ -495,7 +495,7 @@
         <v>4.65</v>
       </c>
       <c r="D2" t="n">
-        <v>82804</v>
+        <v>82806</v>
       </c>
       <c r="E2" t="n">
         <v>4.8</v>
@@ -508,7 +508,7 @@
         <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>21051</v>
+        <v>21053</v>
       </c>
     </row>
     <row r="3">
@@ -588,7 +588,7 @@
         <v>4.55</v>
       </c>
       <c r="D5" t="n">
-        <v>489478</v>
+        <v>489479</v>
       </c>
       <c r="E5" t="n">
         <v>4.6</v>
@@ -603,7 +603,7 @@
         <v>4.5</v>
       </c>
       <c r="I5" t="n">
-        <v>90346</v>
+        <v>90347</v>
       </c>
     </row>
     <row r="6">
@@ -621,7 +621,7 @@
         <v>4.6</v>
       </c>
       <c r="D6" t="n">
-        <v>5751267</v>
+        <v>5751279</v>
       </c>
       <c r="E6" t="n">
         <v>4.6</v>
@@ -636,7 +636,7 @@
         <v>4.6</v>
       </c>
       <c r="I6" t="n">
-        <v>996577</v>
+        <v>996589</v>
       </c>
     </row>
     <row r="7">
@@ -654,7 +654,7 @@
         <v>4.3</v>
       </c>
       <c r="D7" t="n">
-        <v>233519</v>
+        <v>233520</v>
       </c>
       <c r="E7" t="n">
         <v>4.5</v>
@@ -669,7 +669,7 @@
         <v>4.1</v>
       </c>
       <c r="I7" t="n">
-        <v>190361</v>
+        <v>190362</v>
       </c>
     </row>
     <row r="8">
@@ -718,7 +718,7 @@
         <v>4.2</v>
       </c>
       <c r="D9" t="n">
-        <v>3187406</v>
+        <v>3187411</v>
       </c>
       <c r="E9" t="n">
         <v>4.8</v>
@@ -733,7 +733,7 @@
         <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>774592</v>
+        <v>774597</v>
       </c>
     </row>
     <row r="10">
@@ -817,7 +817,7 @@
         <v>4.699999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>2646808</v>
+        <v>2646840</v>
       </c>
       <c r="E12" t="n">
         <v>4.8</v>
@@ -832,7 +832,7 @@
         <v>4.6</v>
       </c>
       <c r="I12" t="n">
-        <v>636278</v>
+        <v>636310</v>
       </c>
     </row>
     <row r="13">
@@ -881,7 +881,7 @@
         <v>4.4</v>
       </c>
       <c r="D14" t="n">
-        <v>334866</v>
+        <v>334869</v>
       </c>
       <c r="E14" t="n">
         <v>4.5</v>
@@ -896,7 +896,7 @@
         <v>4.3</v>
       </c>
       <c r="I14" t="n">
-        <v>76780</v>
+        <v>76783</v>
       </c>
     </row>
     <row r="15">
@@ -914,7 +914,7 @@
         <v>4.25</v>
       </c>
       <c r="D15" t="n">
-        <v>171417</v>
+        <v>171420</v>
       </c>
       <c r="E15" t="n">
         <v>4.4</v>
@@ -929,7 +929,7 @@
         <v>4.1</v>
       </c>
       <c r="I15" t="n">
-        <v>55363</v>
+        <v>55366</v>
       </c>
     </row>
     <row r="16">
@@ -1011,7 +1011,7 @@
         <v>4.65</v>
       </c>
       <c r="D18" t="n">
-        <v>601086</v>
+        <v>601094</v>
       </c>
       <c r="E18" t="n">
         <v>4.7</v>
@@ -1026,7 +1026,7 @@
         <v>4.6</v>
       </c>
       <c r="I18" t="n">
-        <v>189314</v>
+        <v>189322</v>
       </c>
     </row>
     <row r="19">
@@ -1044,7 +1044,7 @@
         <v>3.5</v>
       </c>
       <c r="D19" t="n">
-        <v>4268840</v>
+        <v>4268847</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -1059,7 +1059,7 @@
         <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>277534</v>
+        <v>277541</v>
       </c>
     </row>
     <row r="20">
@@ -1108,7 +1108,7 @@
         <v>3.4</v>
       </c>
       <c r="D21" t="n">
-        <v>19123</v>
+        <v>19124</v>
       </c>
       <c r="E21" t="n">
         <v>3.3</v>
@@ -1121,7 +1121,7 @@
         <v>3.5</v>
       </c>
       <c r="I21" t="n">
-        <v>12518</v>
+        <v>12519</v>
       </c>
     </row>
     <row r="22">
@@ -1139,7 +1139,7 @@
         <v>3.4</v>
       </c>
       <c r="D22" t="n">
-        <v>382775</v>
+        <v>382780</v>
       </c>
       <c r="E22" t="n">
         <v>2.8</v>
@@ -1154,7 +1154,7 @@
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>379646</v>
+        <v>379651</v>
       </c>
     </row>
     <row r="23">
@@ -1172,7 +1172,7 @@
         <v>4.300000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>81578</v>
+        <v>81579</v>
       </c>
       <c r="E23" t="n">
         <v>4.4</v>
@@ -1187,7 +1187,7 @@
         <v>4.2</v>
       </c>
       <c r="I23" t="n">
-        <v>36356</v>
+        <v>36357</v>
       </c>
     </row>
     <row r="24">
@@ -1205,7 +1205,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>1030901</v>
+        <v>1030917</v>
       </c>
       <c r="E24" t="n">
         <v>4.4</v>
@@ -1220,7 +1220,7 @@
         <v>3.6</v>
       </c>
       <c r="I24" t="n">
-        <v>153663</v>
+        <v>153679</v>
       </c>
     </row>
     <row r="25">
@@ -1238,7 +1238,7 @@
         <v>3.75</v>
       </c>
       <c r="D25" t="n">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="E25" t="n">
         <v>3.6</v>
@@ -1251,7 +1251,7 @@
         <v>3.9</v>
       </c>
       <c r="I25" t="n">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="26">
@@ -1451,7 +1451,7 @@
         <v>1.95</v>
       </c>
       <c r="D32" t="n">
-        <v>2602</v>
+        <v>2603</v>
       </c>
       <c r="E32" t="n">
         <v>1.4</v>
@@ -1464,7 +1464,7 @@
         <v>2.5</v>
       </c>
       <c r="I32" t="n">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="33">
@@ -1482,7 +1482,7 @@
         <v>4.25</v>
       </c>
       <c r="D33" t="n">
-        <v>48900</v>
+        <v>48902</v>
       </c>
       <c r="E33" t="n">
         <v>4.4</v>
@@ -1495,7 +1495,7 @@
         <v>4.1</v>
       </c>
       <c r="I33" t="n">
-        <v>20526</v>
+        <v>20528</v>
       </c>
     </row>
     <row r="34">

--- a/combinedRatings.xlsx
+++ b/combinedRatings.xlsx
@@ -495,20 +495,20 @@
         <v>4.65</v>
       </c>
       <c r="D2" t="n">
-        <v>82806</v>
+        <v>82836</v>
       </c>
       <c r="E2" t="n">
         <v>4.8</v>
       </c>
       <c r="F2" t="n">
-        <v>61753</v>
+        <v>61782</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
         <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>21053</v>
+        <v>21054</v>
       </c>
     </row>
     <row r="3">
@@ -588,22 +588,22 @@
         <v>4.55</v>
       </c>
       <c r="D5" t="n">
-        <v>489479</v>
+        <v>489598</v>
       </c>
       <c r="E5" t="n">
         <v>4.6</v>
       </c>
       <c r="F5" t="n">
-        <v>399132</v>
+        <v>399238</v>
       </c>
       <c r="G5" t="n">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="H5" t="n">
         <v>4.5</v>
       </c>
       <c r="I5" t="n">
-        <v>90347</v>
+        <v>90360</v>
       </c>
     </row>
     <row r="6">
@@ -621,13 +621,13 @@
         <v>4.6</v>
       </c>
       <c r="D6" t="n">
-        <v>5751279</v>
+        <v>5751607</v>
       </c>
       <c r="E6" t="n">
         <v>4.6</v>
       </c>
       <c r="F6" t="n">
-        <v>4754690</v>
+        <v>4754964</v>
       </c>
       <c r="G6" t="n">
         <v>9</v>
@@ -636,7 +636,7 @@
         <v>4.6</v>
       </c>
       <c r="I6" t="n">
-        <v>996589</v>
+        <v>996643</v>
       </c>
     </row>
     <row r="7">
@@ -654,22 +654,22 @@
         <v>4.3</v>
       </c>
       <c r="D7" t="n">
-        <v>233520</v>
+        <v>233535</v>
       </c>
       <c r="E7" t="n">
         <v>4.5</v>
       </c>
       <c r="F7" t="n">
-        <v>43158</v>
+        <v>43165</v>
       </c>
       <c r="G7" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H7" t="n">
         <v>4.1</v>
       </c>
       <c r="I7" t="n">
-        <v>190362</v>
+        <v>190370</v>
       </c>
     </row>
     <row r="8">
@@ -687,13 +687,13 @@
         <v>4.1</v>
       </c>
       <c r="D8" t="n">
-        <v>381910</v>
+        <v>381949</v>
       </c>
       <c r="E8" t="n">
         <v>4.6</v>
       </c>
       <c r="F8" t="n">
-        <v>322274</v>
+        <v>322313</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
@@ -718,13 +718,13 @@
         <v>4.2</v>
       </c>
       <c r="D9" t="n">
-        <v>3187411</v>
+        <v>3187414</v>
       </c>
       <c r="E9" t="n">
         <v>4.8</v>
       </c>
       <c r="F9" t="n">
-        <v>2412814</v>
+        <v>2412815</v>
       </c>
       <c r="G9" t="n">
         <v>4</v>
@@ -733,7 +733,7 @@
         <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>774597</v>
+        <v>774599</v>
       </c>
     </row>
     <row r="10">
@@ -751,22 +751,22 @@
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>55403</v>
+        <v>55407</v>
       </c>
       <c r="E10" t="n">
         <v>4.8</v>
       </c>
       <c r="F10" t="n">
-        <v>42795</v>
+        <v>42797</v>
       </c>
       <c r="G10" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H10" t="n">
         <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>12608</v>
+        <v>12610</v>
       </c>
     </row>
     <row r="11">
@@ -784,16 +784,16 @@
         <v>4.4</v>
       </c>
       <c r="D11" t="n">
-        <v>30365</v>
+        <v>30379</v>
       </c>
       <c r="E11" t="n">
         <v>4.7</v>
       </c>
       <c r="F11" t="n">
-        <v>24969</v>
+        <v>24983</v>
       </c>
       <c r="G11" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H11" t="n">
         <v>4.1</v>
@@ -817,22 +817,22 @@
         <v>4.699999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>2646840</v>
+        <v>2647479</v>
       </c>
       <c r="E12" t="n">
         <v>4.8</v>
       </c>
       <c r="F12" t="n">
-        <v>2010530</v>
+        <v>2011063</v>
       </c>
       <c r="G12" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
         <v>4.6</v>
       </c>
       <c r="I12" t="n">
-        <v>636310</v>
+        <v>636416</v>
       </c>
     </row>
     <row r="13">
@@ -850,20 +850,20 @@
         <v>4.3</v>
       </c>
       <c r="D13" t="n">
-        <v>1190790</v>
+        <v>1190776</v>
       </c>
       <c r="E13" t="n">
         <v>4.5</v>
       </c>
       <c r="F13" t="n">
-        <v>1047308</v>
+        <v>1047295</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
         <v>4.1</v>
       </c>
       <c r="I13" t="n">
-        <v>143482</v>
+        <v>143481</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         <v>4.4</v>
       </c>
       <c r="D14" t="n">
-        <v>334869</v>
+        <v>334908</v>
       </c>
       <c r="E14" t="n">
         <v>4.5</v>
       </c>
       <c r="F14" t="n">
-        <v>258086</v>
+        <v>258123</v>
       </c>
       <c r="G14" t="n">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="H14" t="n">
         <v>4.3</v>
       </c>
       <c r="I14" t="n">
-        <v>76783</v>
+        <v>76785</v>
       </c>
     </row>
     <row r="15">
@@ -914,22 +914,22 @@
         <v>4.25</v>
       </c>
       <c r="D15" t="n">
-        <v>171420</v>
+        <v>171453</v>
       </c>
       <c r="E15" t="n">
         <v>4.4</v>
       </c>
       <c r="F15" t="n">
-        <v>116054</v>
+        <v>116079</v>
       </c>
       <c r="G15" t="n">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="H15" t="n">
         <v>4.1</v>
       </c>
       <c r="I15" t="n">
-        <v>55366</v>
+        <v>55374</v>
       </c>
     </row>
     <row r="16">
@@ -947,22 +947,22 @@
         <v>4.300000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>106727</v>
+        <v>106808</v>
       </c>
       <c r="E16" t="n">
         <v>4.4</v>
       </c>
       <c r="F16" t="n">
-        <v>77100</v>
+        <v>77175</v>
       </c>
       <c r="G16" t="n">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="H16" t="n">
         <v>4.2</v>
       </c>
       <c r="I16" t="n">
-        <v>29627</v>
+        <v>29633</v>
       </c>
     </row>
     <row r="17">
@@ -1011,13 +1011,13 @@
         <v>4.65</v>
       </c>
       <c r="D18" t="n">
-        <v>601094</v>
+        <v>601188</v>
       </c>
       <c r="E18" t="n">
         <v>4.7</v>
       </c>
       <c r="F18" t="n">
-        <v>411772</v>
+        <v>411836</v>
       </c>
       <c r="G18" t="n">
         <v>50</v>
@@ -1026,7 +1026,7 @@
         <v>4.6</v>
       </c>
       <c r="I18" t="n">
-        <v>189322</v>
+        <v>189352</v>
       </c>
     </row>
     <row r="19">
@@ -1044,22 +1044,22 @@
         <v>3.5</v>
       </c>
       <c r="D19" t="n">
-        <v>4268847</v>
+        <v>4268835</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>3991306</v>
+        <v>3991292</v>
       </c>
       <c r="G19" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H19" t="n">
         <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>277541</v>
+        <v>277543</v>
       </c>
     </row>
     <row r="20">
@@ -1108,7 +1108,7 @@
         <v>3.4</v>
       </c>
       <c r="D21" t="n">
-        <v>19124</v>
+        <v>19125</v>
       </c>
       <c r="E21" t="n">
         <v>3.3</v>
@@ -1121,7 +1121,7 @@
         <v>3.5</v>
       </c>
       <c r="I21" t="n">
-        <v>12519</v>
+        <v>12520</v>
       </c>
     </row>
     <row r="22">
@@ -1139,7 +1139,7 @@
         <v>3.4</v>
       </c>
       <c r="D22" t="n">
-        <v>382780</v>
+        <v>382785</v>
       </c>
       <c r="E22" t="n">
         <v>2.8</v>
@@ -1148,13 +1148,13 @@
         <v>3129</v>
       </c>
       <c r="G22" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H22" t="n">
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>379651</v>
+        <v>379656</v>
       </c>
     </row>
     <row r="23">
@@ -1172,22 +1172,22 @@
         <v>4.300000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>81579</v>
+        <v>81584</v>
       </c>
       <c r="E23" t="n">
         <v>4.4</v>
       </c>
       <c r="F23" t="n">
-        <v>45222</v>
+        <v>45223</v>
       </c>
       <c r="G23" t="n">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="H23" t="n">
         <v>4.2</v>
       </c>
       <c r="I23" t="n">
-        <v>36357</v>
+        <v>36361</v>
       </c>
     </row>
     <row r="24">
@@ -1205,22 +1205,22 @@
         <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>1030917</v>
+        <v>1031214</v>
       </c>
       <c r="E24" t="n">
         <v>4.4</v>
       </c>
       <c r="F24" t="n">
-        <v>877238</v>
+        <v>877477</v>
       </c>
       <c r="G24" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H24" t="n">
         <v>3.6</v>
       </c>
       <c r="I24" t="n">
-        <v>153679</v>
+        <v>153737</v>
       </c>
     </row>
     <row r="25">
@@ -1238,13 +1238,13 @@
         <v>3.75</v>
       </c>
       <c r="D25" t="n">
-        <v>1447</v>
+        <v>1450</v>
       </c>
       <c r="E25" t="n">
         <v>3.6</v>
       </c>
       <c r="F25" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
@@ -1269,20 +1269,20 @@
         <v>3.9</v>
       </c>
       <c r="D26" t="n">
-        <v>4572</v>
+        <v>4577</v>
       </c>
       <c r="E26" t="n">
         <v>4.2</v>
       </c>
       <c r="F26" t="n">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
         <v>3.6</v>
       </c>
       <c r="I26" t="n">
-        <v>2950</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="27">
@@ -1451,7 +1451,7 @@
         <v>1.95</v>
       </c>
       <c r="D32" t="n">
-        <v>2603</v>
+        <v>2599</v>
       </c>
       <c r="E32" t="n">
         <v>1.4</v>
@@ -1464,7 +1464,7 @@
         <v>2.5</v>
       </c>
       <c r="I32" t="n">
-        <v>1228</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="33">
@@ -1482,20 +1482,20 @@
         <v>4.25</v>
       </c>
       <c r="D33" t="n">
-        <v>48902</v>
+        <v>48919</v>
       </c>
       <c r="E33" t="n">
         <v>4.4</v>
       </c>
       <c r="F33" t="n">
-        <v>28374</v>
+        <v>28390</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
         <v>4.1</v>
       </c>
       <c r="I33" t="n">
-        <v>20528</v>
+        <v>20529</v>
       </c>
     </row>
     <row r="34">
@@ -1544,20 +1544,20 @@
         <v>4.15</v>
       </c>
       <c r="D35" t="n">
-        <v>15905</v>
+        <v>15908</v>
       </c>
       <c r="E35" t="n">
         <v>4.6</v>
       </c>
       <c r="F35" t="n">
-        <v>13443</v>
+        <v>13445</v>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
         <v>3.7</v>
       </c>
       <c r="I35" t="n">
-        <v>2462</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="36">
@@ -1606,7 +1606,7 @@
         <v>4.5</v>
       </c>
       <c r="D37" t="n">
-        <v>4178</v>
+        <v>4179</v>
       </c>
       <c r="E37" t="n">
         <v>4.6</v>
@@ -1619,7 +1619,7 @@
         <v>4.4</v>
       </c>
       <c r="I37" t="n">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="38">

--- a/combinedRatings.xlsx
+++ b/combinedRatings.xlsx
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -495,26 +495,26 @@
         <v>4.65</v>
       </c>
       <c r="D2" t="n">
-        <v>82836</v>
+        <v>82862</v>
       </c>
       <c r="E2" t="n">
         <v>4.8</v>
       </c>
       <c r="F2" t="n">
-        <v>61782</v>
+        <v>61798</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
         <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>21054</v>
+        <v>21064</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -526,7 +526,7 @@
         <v>4.449999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>4751</v>
+        <v>4746</v>
       </c>
       <c r="E3" t="n">
         <v>4.8</v>
@@ -539,13 +539,13 @@
         <v>4.1</v>
       </c>
       <c r="I3" t="n">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -576,7 +576,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -588,28 +588,28 @@
         <v>4.55</v>
       </c>
       <c r="D5" t="n">
-        <v>489598</v>
+        <v>489751</v>
       </c>
       <c r="E5" t="n">
         <v>4.6</v>
       </c>
       <c r="F5" t="n">
-        <v>399238</v>
+        <v>399366</v>
       </c>
       <c r="G5" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H5" t="n">
         <v>4.5</v>
       </c>
       <c r="I5" t="n">
-        <v>90360</v>
+        <v>90385</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -621,13 +621,13 @@
         <v>4.6</v>
       </c>
       <c r="D6" t="n">
-        <v>5751607</v>
+        <v>5752049</v>
       </c>
       <c r="E6" t="n">
         <v>4.6</v>
       </c>
       <c r="F6" t="n">
-        <v>4754964</v>
+        <v>4755313</v>
       </c>
       <c r="G6" t="n">
         <v>9</v>
@@ -636,13 +636,13 @@
         <v>4.6</v>
       </c>
       <c r="I6" t="n">
-        <v>996643</v>
+        <v>996736</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -654,28 +654,28 @@
         <v>4.3</v>
       </c>
       <c r="D7" t="n">
-        <v>233535</v>
+        <v>233570</v>
       </c>
       <c r="E7" t="n">
         <v>4.5</v>
       </c>
       <c r="F7" t="n">
-        <v>43165</v>
+        <v>43177</v>
       </c>
       <c r="G7" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H7" t="n">
         <v>4.1</v>
       </c>
       <c r="I7" t="n">
-        <v>190370</v>
+        <v>190393</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -687,26 +687,26 @@
         <v>4.1</v>
       </c>
       <c r="D8" t="n">
-        <v>381949</v>
+        <v>381983</v>
       </c>
       <c r="E8" t="n">
         <v>4.6</v>
       </c>
       <c r="F8" t="n">
-        <v>322313</v>
+        <v>322339</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
         <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>59636</v>
+        <v>59644</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -718,13 +718,13 @@
         <v>4.2</v>
       </c>
       <c r="D9" t="n">
-        <v>3187414</v>
+        <v>3187439</v>
       </c>
       <c r="E9" t="n">
         <v>4.8</v>
       </c>
       <c r="F9" t="n">
-        <v>2412815</v>
+        <v>2412836</v>
       </c>
       <c r="G9" t="n">
         <v>4</v>
@@ -733,13 +733,13 @@
         <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>774599</v>
+        <v>774603</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -757,22 +757,22 @@
         <v>4.8</v>
       </c>
       <c r="F10" t="n">
-        <v>42797</v>
+        <v>42793</v>
       </c>
       <c r="G10" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H10" t="n">
         <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>12610</v>
+        <v>12614</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -784,28 +784,28 @@
         <v>4.4</v>
       </c>
       <c r="D11" t="n">
-        <v>30379</v>
+        <v>30392</v>
       </c>
       <c r="E11" t="n">
         <v>4.7</v>
       </c>
       <c r="F11" t="n">
-        <v>24983</v>
+        <v>24997</v>
       </c>
       <c r="G11" t="n">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H11" t="n">
         <v>4.1</v>
       </c>
       <c r="I11" t="n">
-        <v>5396</v>
+        <v>5395</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -817,13 +817,13 @@
         <v>4.699999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>2647479</v>
+        <v>2648232</v>
       </c>
       <c r="E12" t="n">
         <v>4.8</v>
       </c>
       <c r="F12" t="n">
-        <v>2011063</v>
+        <v>2011630</v>
       </c>
       <c r="G12" t="n">
         <v>10</v>
@@ -832,13 +832,13 @@
         <v>4.6</v>
       </c>
       <c r="I12" t="n">
-        <v>636416</v>
+        <v>636602</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -850,26 +850,26 @@
         <v>4.3</v>
       </c>
       <c r="D13" t="n">
-        <v>1190776</v>
+        <v>1190773</v>
       </c>
       <c r="E13" t="n">
         <v>4.5</v>
       </c>
       <c r="F13" t="n">
-        <v>1047295</v>
+        <v>1047294</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
         <v>4.1</v>
       </c>
       <c r="I13" t="n">
-        <v>143481</v>
+        <v>143479</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -881,28 +881,28 @@
         <v>4.4</v>
       </c>
       <c r="D14" t="n">
-        <v>334908</v>
+        <v>334964</v>
       </c>
       <c r="E14" t="n">
         <v>4.5</v>
       </c>
       <c r="F14" t="n">
-        <v>258123</v>
+        <v>258155</v>
       </c>
       <c r="G14" t="n">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="H14" t="n">
         <v>4.3</v>
       </c>
       <c r="I14" t="n">
-        <v>76785</v>
+        <v>76809</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -914,28 +914,28 @@
         <v>4.25</v>
       </c>
       <c r="D15" t="n">
-        <v>171453</v>
+        <v>171488</v>
       </c>
       <c r="E15" t="n">
         <v>4.4</v>
       </c>
       <c r="F15" t="n">
-        <v>116079</v>
+        <v>116111</v>
       </c>
       <c r="G15" t="n">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="H15" t="n">
         <v>4.1</v>
       </c>
       <c r="I15" t="n">
-        <v>55374</v>
+        <v>55377</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -947,28 +947,28 @@
         <v>4.300000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>106808</v>
+        <v>106931</v>
       </c>
       <c r="E16" t="n">
         <v>4.4</v>
       </c>
       <c r="F16" t="n">
-        <v>77175</v>
+        <v>77293</v>
       </c>
       <c r="G16" t="n">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="H16" t="n">
         <v>4.2</v>
       </c>
       <c r="I16" t="n">
-        <v>29633</v>
+        <v>29638</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -980,7 +980,7 @@
         <v>4.4</v>
       </c>
       <c r="D17" t="n">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E17" t="n">
         <v>4.3</v>
@@ -993,13 +993,13 @@
         <v>4.5</v>
       </c>
       <c r="I17" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1011,28 +1011,28 @@
         <v>4.65</v>
       </c>
       <c r="D18" t="n">
-        <v>601188</v>
+        <v>601378</v>
       </c>
       <c r="E18" t="n">
         <v>4.7</v>
       </c>
       <c r="F18" t="n">
-        <v>411836</v>
+        <v>411965</v>
       </c>
       <c r="G18" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H18" t="n">
         <v>4.6</v>
       </c>
       <c r="I18" t="n">
-        <v>189352</v>
+        <v>189413</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1050,22 +1050,22 @@
         <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>3991292</v>
+        <v>3991280</v>
       </c>
       <c r="G19" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H19" t="n">
         <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>277543</v>
+        <v>277555</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1085,7 +1085,9 @@
       <c r="F20" t="n">
         <v>4150</v>
       </c>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>158</v>
+      </c>
       <c r="H20" t="n">
         <v>3.3</v>
       </c>
@@ -1096,7 +1098,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1127,7 +1129,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1139,7 +1141,7 @@
         <v>3.4</v>
       </c>
       <c r="D22" t="n">
-        <v>382785</v>
+        <v>382831</v>
       </c>
       <c r="E22" t="n">
         <v>2.8</v>
@@ -1148,19 +1150,19 @@
         <v>3129</v>
       </c>
       <c r="G22" t="n">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H22" t="n">
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>379656</v>
+        <v>379702</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1172,7 +1174,7 @@
         <v>4.300000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>81584</v>
+        <v>81595</v>
       </c>
       <c r="E23" t="n">
         <v>4.4</v>
@@ -1181,19 +1183,19 @@
         <v>45223</v>
       </c>
       <c r="G23" t="n">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="H23" t="n">
         <v>4.2</v>
       </c>
       <c r="I23" t="n">
-        <v>36361</v>
+        <v>36372</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1205,13 +1207,13 @@
         <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>1031214</v>
+        <v>1031662</v>
       </c>
       <c r="E24" t="n">
         <v>4.4</v>
       </c>
       <c r="F24" t="n">
-        <v>877477</v>
+        <v>877815</v>
       </c>
       <c r="G24" t="n">
         <v>5</v>
@@ -1220,13 +1222,13 @@
         <v>3.6</v>
       </c>
       <c r="I24" t="n">
-        <v>153737</v>
+        <v>153847</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1235,20 +1237,20 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="D25" t="n">
-        <v>1450</v>
+        <v>1455</v>
       </c>
       <c r="E25" t="n">
         <v>3.6</v>
       </c>
       <c r="F25" t="n">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I25" t="n">
         <v>1152</v>
@@ -1257,7 +1259,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1269,26 +1271,26 @@
         <v>3.9</v>
       </c>
       <c r="D26" t="n">
-        <v>4577</v>
+        <v>4578</v>
       </c>
       <c r="E26" t="n">
         <v>4.2</v>
       </c>
       <c r="F26" t="n">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
         <v>3.6</v>
       </c>
       <c r="I26" t="n">
-        <v>2954</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1300,7 +1302,7 @@
         <v>3.9</v>
       </c>
       <c r="D27" t="n">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E27" t="n">
         <v>3.7</v>
@@ -1313,13 +1315,13 @@
         <v>4.1</v>
       </c>
       <c r="I27" t="n">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1346,7 +1348,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1358,7 +1360,7 @@
         <v>2.3</v>
       </c>
       <c r="D29" t="n">
-        <v>1845</v>
+        <v>1847</v>
       </c>
       <c r="E29" t="n">
         <v>1.8</v>
@@ -1371,13 +1373,13 @@
         <v>2.8</v>
       </c>
       <c r="I29" t="n">
-        <v>1538</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1408,7 +1410,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1439,7 +1441,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1451,13 +1453,13 @@
         <v>1.95</v>
       </c>
       <c r="D32" t="n">
-        <v>2599</v>
+        <v>2601</v>
       </c>
       <c r="E32" t="n">
         <v>1.4</v>
       </c>
       <c r="F32" t="n">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
@@ -1470,7 +1472,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1482,26 +1484,26 @@
         <v>4.25</v>
       </c>
       <c r="D33" t="n">
-        <v>48919</v>
+        <v>48931</v>
       </c>
       <c r="E33" t="n">
         <v>4.4</v>
       </c>
       <c r="F33" t="n">
-        <v>28390</v>
+        <v>28397</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
         <v>4.1</v>
       </c>
       <c r="I33" t="n">
-        <v>20529</v>
+        <v>20534</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1510,16 +1512,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="D34" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E34" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="F34" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
@@ -1532,7 +1534,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1544,13 +1546,13 @@
         <v>4.15</v>
       </c>
       <c r="D35" t="n">
-        <v>15908</v>
+        <v>15909</v>
       </c>
       <c r="E35" t="n">
         <v>4.6</v>
       </c>
       <c r="F35" t="n">
-        <v>13445</v>
+        <v>13446</v>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
@@ -1563,7 +1565,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1594,7 +1596,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1606,7 +1608,7 @@
         <v>4.5</v>
       </c>
       <c r="D37" t="n">
-        <v>4179</v>
+        <v>4184</v>
       </c>
       <c r="E37" t="n">
         <v>4.6</v>
@@ -1619,13 +1621,13 @@
         <v>4.4</v>
       </c>
       <c r="I37" t="n">
-        <v>879</v>
+        <v>884</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>June 27, 2023</t>
+          <t>June 28, 2023</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
